--- a/Output/Recalculated_scores.xlsx
+++ b/Output/Recalculated_scores.xlsx
@@ -18,16 +18,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>C</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>G</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>G</t>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H185"/>
+  <dimension ref="A2:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,103 +391,103 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.484222386524036</v>
+        <v>7.225</v>
       </c>
       <c r="D2" t="n">
-        <v>5.654045981382583</v>
+        <v>5.679134532517695</v>
       </c>
       <c r="E2" t="n">
-        <v>2.638888888888889</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>14.77715725679551</v>
+        <v>16.23746786585103</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="n">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7.225</v>
+        <v>6.484222386524036</v>
       </c>
       <c r="D3" t="n">
-        <v>5.679134532517695</v>
+        <v>6.855496581584736</v>
       </c>
       <c r="E3" t="n">
-        <v>3.333333333333333</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>16.23746786585103</v>
+        <v>15.73555230144211</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="n">
-        <v>586</v>
+        <v>1606</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.225</v>
+        <v>5.024268397225804</v>
       </c>
       <c r="D4" t="n">
-        <v>7.870177879016299</v>
+        <v>5.851836767198982</v>
       </c>
       <c r="E4" t="n">
-        <v>3.333333333333333</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="F4" t="n">
-        <v>18.42851121234963</v>
+        <v>13.09832738664701</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="n">
-        <v>602</v>
+        <v>1644</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>7.225</v>
+        <v>6.869092587102839</v>
       </c>
       <c r="D5" t="n">
-        <v>6.795923146363212</v>
+        <v>5.398721775838233</v>
       </c>
       <c r="E5" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17.35425647969655</v>
+        <v>12.26781436294107</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -495,3662 +495,750 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="n">
-        <v>606</v>
+        <v>3243</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.384167789165976</v>
+        <v>7.819999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>6.805030283496439</v>
+        <v>6.230795648167649</v>
       </c>
       <c r="E6" t="n">
-        <v>2.083333333333333</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11.27253140599575</v>
+        <v>14.05079564816765</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="n">
-        <v>611</v>
+        <v>3256</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>7.225</v>
       </c>
       <c r="D7" t="n">
-        <v>7.738181818181817</v>
+        <v>6.759732670172735</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>14.96318181818182</v>
+        <v>17.31806600350607</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="n">
-        <v>616</v>
+        <v>3260</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>4.76</v>
+        <v>7.225</v>
       </c>
       <c r="D8" t="n">
-        <v>6.236563334133328</v>
+        <v>6.895712101678258</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>15.99656333413333</v>
+        <v>16.20404543501159</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="n">
-        <v>617</v>
+        <v>3271</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.484222386524036</v>
+        <v>5.918185174205677</v>
       </c>
       <c r="D9" t="n">
-        <v>6.855496581584736</v>
+        <v>6.893250471775135</v>
       </c>
       <c r="E9" t="n">
         <v>2.395833333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>15.73555230144211</v>
+        <v>15.20726897931415</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="n">
-        <v>618</v>
+        <v>3291</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>4.847731467757098</v>
+        <v>5.671876403124136</v>
       </c>
       <c r="D10" t="n">
-        <v>6.694906577810077</v>
+        <v>3.514865169349331</v>
       </c>
       <c r="E10" t="n">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>14.66763804556717</v>
+        <v>9.186741572473467</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="n">
-        <v>622</v>
+        <v>3302</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.225</v>
+        <v>6.484222386524036</v>
       </c>
       <c r="D11" t="n">
-        <v>5.403039957656414</v>
+        <v>7.121302611410001</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.638888888888889</v>
       </c>
       <c r="F11" t="n">
-        <v>12.62803995765641</v>
+        <v>16.24441388682293</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="n">
-        <v>625</v>
+        <v>3303</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5.527377909219229</v>
+        <v>5.024268397225804</v>
       </c>
       <c r="D12" t="n">
-        <v>6.08330962851213</v>
+        <v>7.258382055588758</v>
       </c>
       <c r="E12" t="n">
         <v>3.333333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>14.94402087106469</v>
+        <v>15.61598378614789</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="n">
-        <v>628</v>
+        <v>4282</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.064167789165976</v>
+        <v>7.225</v>
       </c>
       <c r="D13" t="n">
-        <v>4.409157735380353</v>
+        <v>7.666413584963204</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>7.473325524546329</v>
+        <v>16.97474691829654</v>
       </c>
       <c r="G13" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="n">
-        <v>642</v>
+        <v>4298</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.036365733878547</v>
+        <v>7.225</v>
       </c>
       <c r="D14" t="n">
-        <v>5.46646526941838</v>
+        <v>6.863023199047862</v>
       </c>
       <c r="E14" t="n">
-        <v>2.222222222222222</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>13.72505322551915</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17</v>
-      </c>
-      <c r="H14" t="n">
-        <v>26</v>
+        <v>16.48385653238119</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="n">
-        <v>1606</v>
+        <v>4300</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5.024268397225804</v>
+        <v>6.484222386524036</v>
       </c>
       <c r="D15" t="n">
-        <v>5.851836767198982</v>
+        <v>5.63345972078028</v>
       </c>
       <c r="E15" t="n">
-        <v>2.222222222222222</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>13.09832738664701</v>
-      </c>
-      <c r="G15" t="n">
-        <v>18</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
+        <v>14.51351544063765</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="n">
-        <v>1607</v>
+        <v>4308</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.958843413489554</v>
+        <v>7.225</v>
       </c>
       <c r="D16" t="n">
-        <v>5.570890780663891</v>
+        <v>6.112401142162082</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.638888888888889</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>5.890845305264556</v>
+        <v>15.73323447549542</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="n">
-        <v>1630</v>
+        <v>4332</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.847731467757098</v>
+        <v>7.225</v>
       </c>
       <c r="D17" t="n">
-        <v>6.475666302965344</v>
+        <v>6.378585931716498</v>
       </c>
       <c r="E17" t="n">
-        <v>3.333333333333333</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="F17" t="n">
-        <v>14.65673110405577</v>
+        <v>15.82580815393872</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="n">
-        <v>1642</v>
+        <v>4403</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.25520973645747</v>
+        <v>7.225</v>
       </c>
       <c r="D18" t="n">
-        <v>5.494095772005099</v>
+        <v>6.491764949084499</v>
       </c>
       <c r="E18" t="n">
-        <v>3.333333333333333</v>
+        <v>2.638888888888889</v>
       </c>
       <c r="F18" t="n">
-        <v>13.0826388417959</v>
+        <v>16.35565383797339</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="n">
-        <v>1643</v>
+        <v>5522</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>6.800000000000001</v>
+        <v>7.225</v>
       </c>
       <c r="D19" t="n">
-        <v>5.03450838490518</v>
+        <v>7.789582659258296</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="F19" t="n">
-        <v>11.83450838490518</v>
+        <v>17.23680488148052</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="n">
-        <v>1644</v>
+        <v>5537</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.869092587102839</v>
+        <v>5.220363542688304</v>
       </c>
       <c r="D20" t="n">
-        <v>5.398721775838233</v>
+        <v>6.288725825417535</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>12.26781436294107</v>
+        <v>16.50908936810584</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="n">
-        <v>1659</v>
+        <v>5538</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>5.443844002578921</v>
+        <v>5.220363542688304</v>
       </c>
       <c r="D21" t="n">
-        <v>6.456534541714486</v>
+        <v>5.778496129030025</v>
       </c>
       <c r="E21" t="n">
         <v>2.395833333333333</v>
       </c>
       <c r="F21" t="n">
-        <v>14.29621187762674</v>
+        <v>13.39469300505166</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="n">
-        <v>3242</v>
+        <v>5613</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>6.12</v>
+        <v>7.225</v>
       </c>
       <c r="D22" t="n">
-        <v>6.907752265897768</v>
+        <v>6.438810514958868</v>
       </c>
       <c r="E22" t="n">
-        <v>-3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.694418932564435</v>
+        <v>13.66381051495887</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="n">
-        <v>3243</v>
+        <v>5650</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>7.819999999999999</v>
+        <v>4.391666666666666</v>
       </c>
       <c r="D23" t="n">
-        <v>6.230795648167649</v>
+        <v>5.598239265512375</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.638888888888889</v>
       </c>
       <c r="F23" t="n">
-        <v>14.05079564816765</v>
+        <v>12.62879482106793</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="n">
-        <v>3244</v>
+        <v>5658</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>4.76</v>
+        <v>7.225</v>
       </c>
       <c r="D24" t="n">
-        <v>5.010062159735529</v>
+        <v>7.2807424301624</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F24" t="n">
-        <v>9.770062159735529</v>
+        <v>17.83907576349573</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="n">
-        <v>3249</v>
+        <v>5703</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.484222386524036</v>
+        <v>5.220363542688304</v>
       </c>
       <c r="D25" t="n">
-        <v>4.698427392022117</v>
+        <v>6.288725825417535</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F25" t="n">
-        <v>11.18264977854615</v>
+        <v>14.84242270143917</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="n">
-        <v>3250</v>
+        <v>5709</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>4.11571949663915</v>
+        <v>4.85355432674395</v>
       </c>
       <c r="D26" t="n">
-        <v>3.523641504869507</v>
+        <v>5.254390294094693</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.639361001508657</v>
+        <v>10.10794462083864</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="n">
-        <v>3251</v>
+        <v>7471</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>6.484222386524036</v>
+        <v>1.368521249591345</v>
       </c>
       <c r="D27" t="n">
-        <v>5.629224384823403</v>
+        <v>6.244492333140687</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>12.11344677134744</v>
+        <v>7.613013582732031</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="n">
-        <v>3252</v>
+        <v>7497</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>7.192555719857368</v>
+        <v>5.443844002578921</v>
       </c>
       <c r="D28" t="n">
-        <v>3.876807466148528</v>
+        <v>7.414454784527888</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F28" t="n">
-        <v>11.0693631860059</v>
+        <v>16.19163212044014</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="n">
-        <v>3254</v>
+        <v>7511</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>2.18618923057229</v>
+        <v>7.225</v>
       </c>
       <c r="D29" t="n">
-        <v>7.327804900934969</v>
+        <v>5.695090451168804</v>
       </c>
       <c r="E29" t="n">
-        <v>1.111111111111111</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="F29" t="n">
-        <v>10.62510524261837</v>
+        <v>15.00342378450214</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="n">
-        <v>3255</v>
+        <v>7539</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
         <v>7.225</v>
       </c>
       <c r="D30" t="n">
-        <v>7.702604061153681</v>
+        <v>6.759732670172735</v>
       </c>
       <c r="E30" t="n">
-        <v>2.222222222222222</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>17.1498262833759</v>
+        <v>17.31806600350607</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="n">
-        <v>3256</v>
+        <v>8344</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>7.225</v>
+        <v>3.497017295867729</v>
       </c>
       <c r="D31" t="n">
-        <v>6.759732670172735</v>
+        <v>3.743366078609526</v>
       </c>
       <c r="E31" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>17.31806600350607</v>
+        <v>7.240383374477255</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="n">
-        <v>3258</v>
+        <v>8356</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>6.484222386524036</v>
+        <v>4.534490651661836</v>
       </c>
       <c r="D32" t="n">
-        <v>6.336112626504635</v>
+        <v>6.616701302257213</v>
       </c>
       <c r="E32" t="n">
         <v>3.333333333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>16.153668346362</v>
+        <v>14.48452528725238</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="n">
-        <v>3260</v>
+        <v>8363</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>7.225</v>
       </c>
       <c r="D33" t="n">
-        <v>6.895712101678258</v>
+        <v>7.2807424301624</v>
       </c>
       <c r="E33" t="n">
-        <v>2.083333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F33" t="n">
-        <v>16.20404543501159</v>
+        <v>17.83907576349573</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="n">
-        <v>3264</v>
+        <v>10010</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
         <v>7.225</v>
       </c>
       <c r="D34" t="n">
-        <v>7.4173386836007</v>
+        <v>7.49518585331592</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="F34" t="n">
-        <v>14.6423386836007</v>
+        <v>16.94240807553814</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="n">
-        <v>3271</v>
+        <v>12146</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>5.918185174205677</v>
+        <v>7.225</v>
       </c>
       <c r="D35" t="n">
-        <v>6.893250471775135</v>
+        <v>7.495787464352813</v>
       </c>
       <c r="E35" t="n">
-        <v>2.395833333333333</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>15.20726897931415</v>
+        <v>14.72078746435281</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="n">
-        <v>3273</v>
+        <v>12147</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>7.225</v>
+        <v>6.036365733878547</v>
       </c>
       <c r="D36" t="n">
-        <v>5.675531792788861</v>
+        <v>7.821335273382513</v>
       </c>
       <c r="E36" t="n">
-        <v>2.395833333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F36" t="n">
-        <v>15.2963651261222</v>
+        <v>17.19103434059439</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="n">
-        <v>3274</v>
+        <v>12315</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>5.024268397225804</v>
+        <v>7.225</v>
       </c>
       <c r="D37" t="n">
-        <v>5.501909737007557</v>
+        <v>6.025288733662447</v>
       </c>
       <c r="E37" t="n">
-        <v>3.333333333333333</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="F37" t="n">
-        <v>13.85951146756669</v>
+        <v>15.64612206699578</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="n">
-        <v>3280</v>
+        <v>14685</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.800000000000001</v>
+        <v>4.847731467757098</v>
       </c>
       <c r="D38" t="n">
-        <v>6.117855083057584</v>
+        <v>6.411872107501772</v>
       </c>
       <c r="E38" t="n">
-        <v>3.333333333333333</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="F38" t="n">
-        <v>16.25118841639092</v>
+        <v>13.6554369085922</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="n">
-        <v>3287</v>
+        <v>14709</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>6.484222386524036</v>
+        <v>5.58618923057229</v>
       </c>
       <c r="D39" t="n">
-        <v>3.944227994627552</v>
+        <v>6.861996544867154</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>10.42845038115159</v>
+        <v>12.44818577543944</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="n">
-        <v>3288</v>
+        <v>14728</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>6.484222386524036</v>
+        <v>6.036365733878547</v>
       </c>
       <c r="D40" t="n">
-        <v>3.011017601635154</v>
+        <v>5.088666945266916</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.49523998815919</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="n">
-        <v>3291</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>5.671876403124136</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3.514865169349331</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>9.186741572473467</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="n">
-        <v>3302</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6.484222386524036</v>
-      </c>
-      <c r="D42" t="n">
-        <v>7.121302611410001</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2.638888888888889</v>
-      </c>
-      <c r="F42" t="n">
-        <v>16.24441388682293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="n">
-        <v>3303</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>5.024268397225804</v>
-      </c>
-      <c r="D43" t="n">
-        <v>7.258382055588758</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F43" t="n">
-        <v>15.61598378614789</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="n">
-        <v>4267</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D44" t="n">
-        <v>5.908742596318079</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F44" t="n">
-        <v>15.3559648185403</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="n">
-        <v>4269</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D45" t="n">
-        <v>5.713679987063149</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F45" t="n">
-        <v>16.27201332039648</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="n">
-        <v>4274</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>6.484222386524036</v>
-      </c>
-      <c r="D46" t="n">
-        <v>7.636406228224987</v>
-      </c>
-      <c r="E46" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F46" t="n">
-        <v>17.45396194808236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="n">
-        <v>4279</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6.434044575885895</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4.688387861131539</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>11.12243243701743</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="n">
-        <v>4281</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="n">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="D48" t="n">
-        <v>7.508757281887349</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F48" t="n">
-        <v>17.64209061522068</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="n">
-        <v>4282</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D49" t="n">
-        <v>7.666413584963204</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="F49" t="n">
-        <v>16.97474691829654</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="n">
-        <v>4284</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4.534490651661836</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4.348196611530235</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>8.882687263192071</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="n">
-        <v>4285</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D51" t="n">
-        <v>6.343639243967759</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F51" t="n">
-        <v>16.90197257730109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="n">
-        <v>4289</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D52" t="n">
-        <v>6.499820368266207</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F52" t="n">
-        <v>17.05815370159954</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="n">
-        <v>4290</v>
-      </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D53" t="n">
-        <v>7.123335952184178</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>14.34833595218418</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="n">
-        <v>4295</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.487377909219229</v>
-      </c>
-      <c r="D54" t="n">
-        <v>6.758360181230791</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>10.24573809045002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="n">
-        <v>4296</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D55" t="n">
-        <v>6.843967041049085</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>14.06896704104908</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="n">
-        <v>4298</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D56" t="n">
-        <v>6.863023199047862</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F56" t="n">
-        <v>16.48385653238119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="n">
-        <v>4300</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6.484222386524036</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5.63345972078028</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F57" t="n">
-        <v>14.51351544063765</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="n">
-        <v>4302</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5.056099293996088</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>12.28109929399609</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="n">
-        <v>4308</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D59" t="n">
-        <v>6.112401142162082</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F59" t="n">
-        <v>15.73323447549542</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="n">
-        <v>4309</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.898185174205677</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5.450459683815676</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="F60" t="n">
-        <v>12.43197819135469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="n">
-        <v>4316</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2.86618923057229</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4.270162121983011</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>7.136351352555302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="n">
-        <v>4320</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6.338691579332723</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-2.395833333333333</v>
-      </c>
-      <c r="F62" t="n">
-        <v>8.702858245999389</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="n">
-        <v>4322</v>
-      </c>
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D63" t="n">
-        <v>5.761919442433356</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3.59375</v>
-      </c>
-      <c r="F63" t="n">
-        <v>14.11566944243336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="n">
-        <v>4332</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D64" t="n">
-        <v>6.378585931716498</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F64" t="n">
-        <v>15.82580815393872</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="n">
-        <v>4336</v>
-      </c>
-      <c r="B65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1.496324468452056</v>
-      </c>
-      <c r="D65" t="n">
-        <v>5.974374681734679</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>7.470699150186736</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="n">
-        <v>4369</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4.68565156198918</v>
-      </c>
-      <c r="D66" t="n">
-        <v>7.097535085701714</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>11.78318664769089</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="n">
-        <v>4372</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D67" t="n">
-        <v>6.930257556223712</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="F67" t="n">
-        <v>16.23859088955705</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="n">
-        <v>4403</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D68" t="n">
-        <v>6.491764949084499</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2.638888888888889</v>
-      </c>
-      <c r="F68" t="n">
-        <v>16.35565383797339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="n">
-        <v>4409</v>
-      </c>
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D69" t="n">
-        <v>7.053781194703721</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>14.27878119470372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="n">
-        <v>4415</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6.23511382998583</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13.46011382998583</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="n">
-        <v>4450</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D71" t="n">
-        <v>6.33092264247017</v>
-      </c>
-      <c r="E71" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F71" t="n">
-        <v>16.8892559758035</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="n">
-        <v>4456</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1.877104389958141</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3.398851509312028</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5.275955899270169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="n">
-        <v>5521</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D73" t="n">
-        <v>7.870177879016299</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F73" t="n">
-        <v>18.42851121234963</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="n">
-        <v>5522</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D74" t="n">
-        <v>7.789582659258296</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17.23680488148052</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="n">
-        <v>5523</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.847731467757098</v>
-      </c>
-      <c r="D75" t="n">
-        <v>7.618986997156878</v>
-      </c>
-      <c r="E75" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F75" t="n">
-        <v>15.80005179824731</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="n">
-        <v>5532</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7.491664168018868</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-3.333333333333333</v>
-      </c>
-      <c r="F76" t="n">
-        <v>11.38333083468553</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="n">
-        <v>5537</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>5.220363542688304</v>
-      </c>
-      <c r="D77" t="n">
-        <v>6.288725825417535</v>
-      </c>
-      <c r="E77" t="n">
-        <v>5</v>
-      </c>
-      <c r="F77" t="n">
-        <v>16.50908936810584</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="n">
-        <v>5538</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>5.220363542688304</v>
-      </c>
-      <c r="D78" t="n">
-        <v>5.778496129030025</v>
-      </c>
-      <c r="E78" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F78" t="n">
-        <v>13.39469300505166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="n">
-        <v>5540</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D79" t="n">
-        <v>6.597024046143838</v>
-      </c>
-      <c r="E79" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F79" t="n">
-        <v>16.21785737947717</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="n">
-        <v>5541</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D80" t="n">
-        <v>6.499820368266207</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F80" t="n">
-        <v>17.05815370159954</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="n">
-        <v>5543</v>
-      </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D81" t="n">
-        <v>7.4173386836007</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>14.6423386836007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="n">
-        <v>5545</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D82" t="n">
-        <v>8.083636363636362</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>15.30863636363636</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="n">
-        <v>5549</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D83" t="n">
-        <v>6.3617906068606</v>
-      </c>
-      <c r="E83" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F83" t="n">
-        <v>16.92012394019393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="n">
-        <v>5556</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="D84" t="n">
-        <v>6.451765060413414</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>13.25176506041342</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="n">
-        <v>5559</v>
-      </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D85" t="n">
-        <v>6.146946596707537</v>
-      </c>
-      <c r="E85" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="F85" t="n">
-        <v>15.45527993004087</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="n">
-        <v>5567</v>
-      </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.39571949663915</v>
-      </c>
-      <c r="D86" t="n">
-        <v>3.364375719599803</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>4.760095216238953</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="n">
-        <v>5591</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>6.484222386524036</v>
-      </c>
-      <c r="D87" t="n">
-        <v>6.198916781683053</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="F87" t="n">
-        <v>14.76647250154042</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="n">
-        <v>5613</v>
-      </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D88" t="n">
-        <v>6.438810514958868</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>13.66381051495887</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="n">
-        <v>5628</v>
-      </c>
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2.178185174205677</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6.340047640993481</v>
-      </c>
-      <c r="E89" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F89" t="n">
-        <v>11.85156614853249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="n">
-        <v>5636</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D90" t="n">
-        <v>7.531376329506396</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F90" t="n">
-        <v>16.97859855172862</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="n">
-        <v>5650</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4.391666666666666</v>
-      </c>
-      <c r="D91" t="n">
-        <v>5.598239265512375</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.638888888888889</v>
-      </c>
-      <c r="F91" t="n">
-        <v>12.62879482106793</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="n">
-        <v>5658</v>
-      </c>
-      <c r="B92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D92" t="n">
-        <v>7.2807424301624</v>
-      </c>
-      <c r="E92" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F92" t="n">
-        <v>17.83907576349573</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="n">
-        <v>5690</v>
-      </c>
-      <c r="B93" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D93" t="n">
-        <v>6.897568653593317</v>
-      </c>
-      <c r="E93" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F93" t="n">
-        <v>16.51840198692665</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="n">
-        <v>5692</v>
-      </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D94" t="n">
-        <v>6.843967041049085</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>14.06896704104908</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="n">
-        <v>5698</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="D95" t="n">
-        <v>7.101745043093269</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>13.90174504309327</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="n">
-        <v>5703</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.220363542688304</v>
-      </c>
-      <c r="D96" t="n">
-        <v>6.288725825417535</v>
-      </c>
-      <c r="E96" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F96" t="n">
-        <v>14.84242270143917</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="n">
-        <v>5709</v>
-      </c>
-      <c r="B97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>4.85355432674395</v>
-      </c>
-      <c r="D97" t="n">
-        <v>5.254390294094693</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>10.10794462083864</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="n">
-        <v>5728</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>5.220363542688304</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6.505942439625183</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2.638888888888889</v>
-      </c>
-      <c r="F98" t="n">
-        <v>14.36519487120238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="n">
-        <v>5780</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.607592521329468</v>
-      </c>
-      <c r="D99" t="n">
-        <v>4.374612280834898</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>6.982204802164366</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="n">
-        <v>5783</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2.476290834150643</v>
-      </c>
-      <c r="D100" t="n">
-        <v>5.98717386943481</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F100" t="n">
-        <v>10.68568692580768</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="n">
-        <v>5814</v>
-      </c>
-      <c r="B101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.796290834150643</v>
-      </c>
-      <c r="D101" t="n">
-        <v>6.040795648167649</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>7.837086482318292</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="n">
-        <v>5874</v>
-      </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="n">
-        <v>5.707736538215364</v>
-      </c>
-      <c r="D102" t="n">
-        <v>5.26703701481903</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>10.97477355303439</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="n">
-        <v>7451</v>
-      </c>
-      <c r="B103" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>6.484222386524036</v>
-      </c>
-      <c r="D103" t="n">
-        <v>5.471015684605689</v>
-      </c>
-      <c r="E103" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F103" t="n">
-        <v>15.28857140446306</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="n">
-        <v>7458</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D104" t="n">
-        <v>6.570561493591454</v>
-      </c>
-      <c r="E104" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F104" t="n">
-        <v>17.12889482692479</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="n">
-        <v>7471</v>
-      </c>
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.368521249591345</v>
-      </c>
-      <c r="D105" t="n">
-        <v>6.244492333140687</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>7.613013582732031</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="n">
-        <v>7472</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1.796290834150643</v>
-      </c>
-      <c r="D106" t="n">
-        <v>5.208721775838232</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>7.005012609988876</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="n">
-        <v>7480</v>
-      </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D107" t="n">
-        <v>6.843967041049085</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>14.06896704104908</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="n">
-        <v>7497</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>5.443844002578921</v>
-      </c>
-      <c r="D108" t="n">
-        <v>7.414454784527888</v>
-      </c>
-      <c r="E108" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F108" t="n">
-        <v>16.19163212044014</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="n">
-        <v>7506</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>4.847731467757098</v>
-      </c>
-      <c r="D109" t="n">
-        <v>7.844873620129681</v>
-      </c>
-      <c r="E109" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F109" t="n">
-        <v>16.02593842122011</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="n">
-        <v>7510</v>
-      </c>
-      <c r="B110" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5.849092587102838</v>
-      </c>
-      <c r="D110" t="n">
-        <v>5.887151687227169</v>
-      </c>
-      <c r="E110" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F110" t="n">
-        <v>13.95846649655223</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="n">
-        <v>7511</v>
-      </c>
-      <c r="B111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D111" t="n">
-        <v>5.695090451168804</v>
-      </c>
-      <c r="E111" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="F111" t="n">
-        <v>15.00342378450214</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="n">
-        <v>7512</v>
-      </c>
-      <c r="B112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3.99540558556507</v>
-      </c>
-      <c r="D112" t="n">
-        <v>6.219296842742753</v>
-      </c>
-      <c r="E112" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F112" t="n">
-        <v>12.43692465053005</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="n">
-        <v>7526</v>
-      </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="D113" t="n">
-        <v>7.472037464352814</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>13.59203746435281</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="n">
-        <v>7539</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D114" t="n">
-        <v>6.759732670172735</v>
-      </c>
-      <c r="E114" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F114" t="n">
-        <v>17.31806600350607</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="n">
-        <v>7543</v>
-      </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="n">
-        <v>3.156290834150643</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6.805030283496439</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="F115" t="n">
-        <v>12.04465445098042</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="n">
-        <v>7554</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>6.036365733878547</v>
-      </c>
-      <c r="D116" t="n">
-        <v>6.885491620942884</v>
-      </c>
-      <c r="E116" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F116" t="n">
-        <v>15.31769068815476</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="n">
-        <v>8296</v>
-      </c>
-      <c r="B117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3.129092587102837</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6.366537676357226</v>
-      </c>
-      <c r="E117" t="n">
-        <v>2.638888888888889</v>
-      </c>
-      <c r="F117" t="n">
-        <v>12.13451915234895</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="n">
-        <v>8299</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>3.745286179218991</v>
-      </c>
-      <c r="D118" t="n">
-        <v>5.873387215251319</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F118" t="n">
-        <v>11.84089561669253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="n">
-        <v>8304</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D119" t="n">
-        <v>7.870177879016299</v>
-      </c>
-      <c r="E119" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F119" t="n">
-        <v>18.42851121234963</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="n">
-        <v>8306</v>
-      </c>
-      <c r="B120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D120" t="n">
-        <v>7.644291256043497</v>
-      </c>
-      <c r="E120" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F120" t="n">
-        <v>18.20262458937683</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="n">
-        <v>8313</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" t="n">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="D121" t="n">
-        <v>7.679985013534632</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="F121" t="n">
-        <v>16.56331834686797</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="n">
-        <v>8316</v>
-      </c>
-      <c r="B122" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5.443844002578921</v>
-      </c>
-      <c r="D122" t="n">
-        <v>6.32554193704209</v>
-      </c>
-      <c r="E122" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F122" t="n">
-        <v>15.10271927295435</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="n">
-        <v>8319</v>
-      </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5.443844002578921</v>
-      </c>
-      <c r="D123" t="n">
-        <v>6.578926739218169</v>
-      </c>
-      <c r="E123" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F123" t="n">
-        <v>14.41860407513042</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="n">
-        <v>8326</v>
-      </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="D124" t="n">
-        <v>6.89654199941261</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>13.69654199941261</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="n">
-        <v>8328</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D125" t="n">
-        <v>6.3617906068606</v>
-      </c>
-      <c r="E125" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F125" t="n">
-        <v>16.92012394019393</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="n">
-        <v>8342</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4.25520973645747</v>
-      </c>
-      <c r="D126" t="n">
-        <v>6.286666944425221</v>
-      </c>
-      <c r="E126" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F126" t="n">
-        <v>13.87521001421602</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" t="n">
-        <v>8344</v>
-      </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>3.497017295867729</v>
-      </c>
-      <c r="D127" t="n">
-        <v>3.743366078609526</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>7.240383374477255</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="n">
-        <v>8348</v>
-      </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.766604775891215</v>
-      </c>
-      <c r="D128" t="n">
-        <v>3.358851509312028</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>5.125456285203243</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="n">
-        <v>8355</v>
-      </c>
-      <c r="B129" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4.68565156198918</v>
-      </c>
-      <c r="D129" t="n">
-        <v>5.861345848678168</v>
-      </c>
-      <c r="E129" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F129" t="n">
-        <v>12.94283074400068</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="n">
-        <v>8356</v>
-      </c>
-      <c r="B130" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4.534490651661836</v>
-      </c>
-      <c r="D130" t="n">
-        <v>6.616701302257213</v>
-      </c>
-      <c r="E130" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F130" t="n">
-        <v>14.48452528725238</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="n">
-        <v>8361</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4.123554266861941</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6.381619370791566</v>
-      </c>
-      <c r="E131" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F131" t="n">
-        <v>12.72739585987573</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="n">
-        <v>8362</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>6.484222386524036</v>
-      </c>
-      <c r="D132" t="n">
-        <v>7.155848065955456</v>
-      </c>
-      <c r="E132" t="n">
-        <v>3.958333333333333</v>
-      </c>
-      <c r="F132" t="n">
-        <v>17.59840378581282</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="n">
-        <v>8363</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D133" t="n">
-        <v>7.2807424301624</v>
-      </c>
-      <c r="E133" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F133" t="n">
-        <v>17.83907576349573</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="n">
-        <v>9997</v>
-      </c>
-      <c r="B134" t="s">
-        <v>0</v>
-      </c>
-      <c r="C134" t="n">
-        <v>5.849092587102838</v>
-      </c>
-      <c r="D134" t="n">
-        <v>5.69208907797224</v>
-      </c>
-      <c r="E134" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F134" t="n">
-        <v>14.87451499840841</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="n">
-        <v>10010</v>
-      </c>
-      <c r="B135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D135" t="n">
-        <v>7.49518585331592</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F135" t="n">
-        <v>16.94240807553814</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="n">
-        <v>10044</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2.319414717780643</v>
-      </c>
-      <c r="D136" t="n">
-        <v>3.358851509312028</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>5.678266227092671</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="n">
-        <v>10406</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>6.036365733878547</v>
-      </c>
-      <c r="D137" t="n">
-        <v>6.514233370979521</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2.638888888888889</v>
-      </c>
-      <c r="F137" t="n">
-        <v>15.18948799374696</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" t="n">
-        <v>10437</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D138" t="n">
-        <v>8.040454545454544</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>15.26545454545454</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" t="n">
-        <v>10438</v>
-      </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D139" t="n">
-        <v>6.918132908503519</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>14.14313290850352</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="n">
-        <v>10450</v>
-      </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" t="n">
-        <v>6.484222386524036</v>
-      </c>
-      <c r="D140" t="n">
-        <v>6.139419979244413</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F140" t="n">
-        <v>14.84586458799067</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="n">
-        <v>12146</v>
-      </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D141" t="n">
-        <v>7.495787464352813</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>14.72078746435281</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="n">
-        <v>12147</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>6.036365733878547</v>
-      </c>
-      <c r="D142" t="n">
-        <v>7.821335273382513</v>
-      </c>
-      <c r="E142" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F142" t="n">
-        <v>17.19103434059439</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="n">
-        <v>12148</v>
-      </c>
-      <c r="B143" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D143" t="n">
-        <v>7.825773135448773</v>
-      </c>
-      <c r="E143" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F143" t="n">
-        <v>17.27299535767099</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="n">
-        <v>12183</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144" t="n">
-        <v>5.849092587102838</v>
-      </c>
-      <c r="D144" t="n">
-        <v>6.125355687616628</v>
-      </c>
-      <c r="E144" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F144" t="n">
-        <v>14.3702816080528</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="n">
-        <v>12201</v>
-      </c>
-      <c r="B145" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" t="n">
-        <v>5.58618923057229</v>
-      </c>
-      <c r="D145" t="n">
-        <v>5.456951392977905</v>
-      </c>
-      <c r="E145" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F145" t="n">
-        <v>13.26536284577242</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="n">
-        <v>12206</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2</v>
-      </c>
-      <c r="C146" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D146" t="n">
-        <v>6.227174778140555</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" t="n">
-        <v>13.45217477814056</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="n">
-        <v>12207</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" t="n">
-        <v>4.318843413489553</v>
-      </c>
-      <c r="D147" t="n">
-        <v>6.457830304502049</v>
-      </c>
-      <c r="E147" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F147" t="n">
-        <v>14.11000705132493</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="n">
-        <v>12258</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>5.169092587102837</v>
-      </c>
-      <c r="D148" t="n">
-        <v>6.078011045371044</v>
-      </c>
-      <c r="E148" t="n">
-        <v>5</v>
-      </c>
-      <c r="F148" t="n">
-        <v>16.24710363247388</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="n">
-        <v>12261</v>
-      </c>
-      <c r="B149" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" t="n">
-        <v>5.220363542688304</v>
-      </c>
-      <c r="D149" t="n">
-        <v>6.186075435141408</v>
-      </c>
-      <c r="E149" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="F149" t="n">
-        <v>13.48977231116305</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="n">
-        <v>12262</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D150" t="n">
-        <v>6.413131386261953</v>
-      </c>
-      <c r="E150" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F150" t="n">
-        <v>16.97146471959529</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" t="n">
-        <v>12264</v>
-      </c>
-      <c r="B151" t="s">
-        <v>2</v>
-      </c>
-      <c r="C151" t="n">
-        <v>3.99540558556507</v>
-      </c>
-      <c r="D151" t="n">
-        <v>7.282473823812525</v>
-      </c>
-      <c r="E151" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F151" t="n">
-        <v>14.61121274271093</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" t="n">
-        <v>12276</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="D152" t="n">
-        <v>7.803154087829725</v>
-      </c>
-      <c r="E152" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F152" t="n">
-        <v>16.82537631005195</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="n">
-        <v>12283</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D153" t="n">
-        <v>5.295299765577764</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" t="n">
-        <v>12.52029976557776</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="n">
-        <v>12294</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1</v>
-      </c>
-      <c r="C154" t="n">
-        <v>5.867377909219229</v>
-      </c>
-      <c r="D154" t="n">
-        <v>6.558160409780202</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F154" t="n">
-        <v>14.82137165233276</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" t="n">
-        <v>12297</v>
-      </c>
-      <c r="B155" t="s">
-        <v>0</v>
-      </c>
-      <c r="C155" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D155" t="n">
-        <v>7.257565956327974</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" t="n">
-        <v>11.33756595632797</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="n">
-        <v>12299</v>
-      </c>
-      <c r="B156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D156" t="n">
-        <v>8.083636363636362</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" t="n">
-        <v>15.30863636363636</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="n">
-        <v>12300</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="D157" t="n">
-        <v>7.984318181818182</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0</v>
-      </c>
-      <c r="F157" t="n">
-        <v>14.10431818181818</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" t="n">
-        <v>12308</v>
-      </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D158" t="n">
-        <v>4.896326566723361</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>8.976326566723362</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="n">
-        <v>12311</v>
-      </c>
-      <c r="B159" t="s">
-        <v>0</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.827011250561135</v>
-      </c>
-      <c r="D159" t="n">
-        <v>4.346942694113976</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5.173953944675111</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="n">
-        <v>12313</v>
-      </c>
-      <c r="B160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D160" t="n">
-        <v>6.146946596707537</v>
-      </c>
-      <c r="E160" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F160" t="n">
-        <v>15.76777993004087</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" t="n">
-        <v>12315</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D161" t="n">
-        <v>6.025288733662447</v>
-      </c>
-      <c r="E161" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F161" t="n">
-        <v>15.64612206699578</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="n">
-        <v>12316</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D162" t="n">
-        <v>6.33092264247017</v>
-      </c>
-      <c r="E162" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F162" t="n">
-        <v>16.8892559758035</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="n">
-        <v>12317</v>
-      </c>
-      <c r="B163" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D163" t="n">
-        <v>4.374612280834898</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>9.134612280834897</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="n">
-        <v>12320</v>
-      </c>
-      <c r="B164" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D164" t="n">
-        <v>3.018544219098279</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F164" t="n">
-        <v>10.24354421909828</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="n">
-        <v>14674</v>
-      </c>
-      <c r="B165" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1.877104389958141</v>
-      </c>
-      <c r="D165" t="n">
-        <v>6.136492959958738</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" t="n">
-        <v>8.013597349916878</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="n">
-        <v>14680</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>4.216324468452056</v>
-      </c>
-      <c r="D166" t="n">
-        <v>5.569039266917244</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>9.7853637353693</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="n">
-        <v>14685</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>4.847731467757098</v>
-      </c>
-      <c r="D167" t="n">
-        <v>6.411872107501772</v>
-      </c>
-      <c r="E167" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F167" t="n">
-        <v>13.6554369085922</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="n">
-        <v>14693</v>
-      </c>
-      <c r="B168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" t="n">
-        <v>2.807377909219229</v>
-      </c>
-      <c r="D168" t="n">
-        <v>4.305521371743989</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>7.112899280963219</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="n">
-        <v>14696</v>
-      </c>
-      <c r="B169" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.639414717780643</v>
-      </c>
-      <c r="D169" t="n">
-        <v>5.277732411088405</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-2.083333333333333</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4.833813795535715</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="n">
-        <v>14709</v>
-      </c>
-      <c r="B170" t="s">
-        <v>0</v>
-      </c>
-      <c r="C170" t="n">
-        <v>5.58618923057229</v>
-      </c>
-      <c r="D170" t="n">
-        <v>6.861996544867154</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>12.44818577543944</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="n">
-        <v>14710</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D171" t="n">
-        <v>8.040454545454544</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>15.26545454545454</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="n">
-        <v>14721</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>6.20737790921923</v>
-      </c>
-      <c r="D172" t="n">
-        <v>6.773304098744165</v>
-      </c>
-      <c r="E172" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F172" t="n">
-        <v>16.31401534129673</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="n">
-        <v>14723</v>
-      </c>
-      <c r="B173" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D173" t="n">
-        <v>7.531376329506396</v>
-      </c>
-      <c r="E173" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F173" t="n">
-        <v>16.97859855172862</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="n">
-        <v>14724</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D174" t="n">
-        <v>7.491664168018868</v>
-      </c>
-      <c r="E174" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F174" t="n">
-        <v>18.0499975013522</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="n">
-        <v>14728</v>
-      </c>
-      <c r="B175" t="s">
-        <v>0</v>
-      </c>
-      <c r="C175" t="n">
-        <v>6.036365733878547</v>
-      </c>
-      <c r="D175" t="n">
-        <v>5.088666945266916</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" t="n">
         <v>11.12503267914546</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="n">
-        <v>14739</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1</v>
-      </c>
-      <c r="C176" t="n">
-        <v>3.745286179218991</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5.694280524647501</v>
-      </c>
-      <c r="E176" t="n">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="F176" t="n">
-        <v>11.52290003719983</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="n">
-        <v>15915</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D177" t="n">
-        <v>6.597024046143838</v>
-      </c>
-      <c r="E177" t="n">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="F177" t="n">
-        <v>16.21785737947717</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="n">
-        <v>15923</v>
-      </c>
-      <c r="B178" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D178" t="n">
-        <v>6.843967041049085</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>14.06896704104908</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="n">
-        <v>15967</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1</v>
-      </c>
-      <c r="C179" t="n">
-        <v>2.728521249591344</v>
-      </c>
-      <c r="D179" t="n">
-        <v>6.338691579332723</v>
-      </c>
-      <c r="E179" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F179" t="n">
-        <v>12.4005461622574</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="n">
-        <v>15975</v>
-      </c>
-      <c r="B180" t="s">
-        <v>2</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.68565156198918</v>
-      </c>
-      <c r="D180" t="n">
-        <v>6.034907780531738</v>
-      </c>
-      <c r="E180" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F180" t="n">
-        <v>14.05389267585425</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="n">
-        <v>15990</v>
-      </c>
-      <c r="B181" t="s">
-        <v>2</v>
-      </c>
-      <c r="C181" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D181" t="n">
-        <v>8.040454545454544</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>15.26545454545454</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="n">
-        <v>15995</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5.375075202063137</v>
-      </c>
-      <c r="D182" t="n">
-        <v>6.478229459175298</v>
-      </c>
-      <c r="E182" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F182" t="n">
-        <v>15.18663799457177</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="n">
-        <v>16002</v>
-      </c>
-      <c r="B183" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="D183" t="n">
-        <v>7.702604061153681</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F183" t="n">
-        <v>17.1498262833759</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="n">
-        <v>16018</v>
-      </c>
-      <c r="B184" t="s">
-        <v>2</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.20737790921923</v>
-      </c>
-      <c r="D184" t="n">
-        <v>5.6399816897548</v>
-      </c>
-      <c r="E184" t="n">
-        <v>3.958333333333333</v>
-      </c>
-      <c r="F184" t="n">
-        <v>15.80569293230736</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="n">
-        <v>16023</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D185" t="n">
-        <v>6.319648486320231</v>
-      </c>
-      <c r="E185" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F185" t="n">
-        <v>13.73298181965356</v>
       </c>
     </row>
   </sheetData>
@@ -4177,7 +1265,7 @@
         <v>581</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>6.484222386524036</v>
@@ -4192,10 +1280,10 @@
         <v>14.69402422396485</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4203,7 +1291,7 @@
         <v>585</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>7.225</v>
@@ -4218,10 +1306,10 @@
         <v>14.85378746435281</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4244,10 +1332,10 @@
         <v>18.29310077985302</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4255,7 +1343,7 @@
         <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>3.99540558556507</v>
@@ -4270,10 +1358,10 @@
         <v>9.25333550258709</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4281,7 +1369,7 @@
         <v>592</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1.877104389958141</v>
@@ -4348,10 +1436,10 @@
         <v>7.944039354526342</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4359,7 +1447,7 @@
         <v>595</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0.2351879162580114</v>
@@ -4385,7 +1473,7 @@
         <v>595</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1.595187916258012</v>
@@ -4426,10 +1514,10 @@
         <v>5.585904348502442</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4437,7 +1525,7 @@
         <v>596</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>3.161316037465604</v>
@@ -4452,10 +1540,10 @@
         <v>8.19439751679344</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4463,7 +1551,7 @@
         <v>597</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1.259355705423987</v>
@@ -4504,10 +1592,10 @@
         <v>5.010997210293494</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4515,7 +1603,7 @@
         <v>598</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>3.803696876021637</v>
@@ -4530,10 +1618,10 @@
         <v>10.37319583065075</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4541,7 +1629,7 @@
         <v>603</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>6.036365733878547</v>
@@ -4567,7 +1655,7 @@
         <v>614</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>6.12</v>
@@ -4582,10 +1670,10 @@
         <v>13.17199654486715</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4608,10 +1696,10 @@
         <v>11.02836018123079</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4619,7 +1707,7 @@
         <v>619</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>3.621380487447676</v>
@@ -4639,7 +1727,7 @@
         <v>621</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>5.220363542688304</v>
@@ -4659,7 +1747,7 @@
         <v>629</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0.6162289433751923</v>
@@ -4679,7 +1767,7 @@
         <v>629</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
         <v>3.336228943375192</v>
@@ -4739,7 +1827,7 @@
         <v>633</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>2.589624167483977</v>
@@ -4779,7 +1867,7 @@
         <v>634</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0.3842407462304946</v>
@@ -4799,7 +1887,7 @@
         <v>634</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
         <v>1.064240746230495</v>
@@ -4819,7 +1907,7 @@
         <v>634</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0.3842407462304946</v>
@@ -4879,7 +1967,7 @@
         <v>644</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>7.225</v>
@@ -4899,7 +1987,7 @@
         <v>645</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>7.225</v>
@@ -4919,7 +2007,7 @@
         <v>647</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>7.225</v>
@@ -4939,7 +2027,7 @@
         <v>1603</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>7.225</v>
@@ -4959,7 +2047,7 @@
         <v>1608</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>5.024268397225804</v>
@@ -4979,7 +2067,7 @@
         <v>1618</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>3.745286179218991</v>
@@ -5019,7 +2107,7 @@
         <v>1625</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>6.484222386524036</v>
@@ -5039,7 +2127,7 @@
         <v>1627</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>6.036365733878547</v>
@@ -5059,7 +2147,7 @@
         <v>1629</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>5.024268397225804</v>
@@ -5079,7 +2167,7 @@
         <v>1633</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
         <v>7.225</v>
@@ -5099,7 +2187,7 @@
         <v>1636</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>7.225</v>
@@ -5119,7 +2207,7 @@
         <v>1646</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
         <v>6.001721433537877</v>
@@ -5139,7 +2227,7 @@
         <v>1652</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>2.975</v>
@@ -5159,7 +2247,7 @@
         <v>1654</v>
       </c>
       <c r="B46" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
         <v>3.555427992670376</v>
@@ -5179,7 +2267,7 @@
         <v>1655</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>3.977318228655847</v>
@@ -5199,7 +2287,7 @@
         <v>1656</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>1.862895610041859</v>
@@ -5219,7 +2307,7 @@
         <v>1656</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>3.902895610041858</v>
@@ -5259,7 +2347,7 @@
         <v>1661</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>3.335075202063137</v>
@@ -5319,7 +2407,7 @@
         <v>1664</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>3.744167789165976</v>
@@ -5339,7 +2427,7 @@
         <v>1664</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
         <v>1.024167789165976</v>
@@ -5379,7 +2467,7 @@
         <v>3253</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
         <v>5.443844002578921</v>
@@ -5399,7 +2487,7 @@
         <v>3261</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>4.847731467757098</v>
@@ -5419,7 +2507,7 @@
         <v>3281</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>7.225</v>
@@ -5439,7 +2527,7 @@
         <v>3285</v>
       </c>
       <c r="B60" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
         <v>7.225</v>
@@ -5459,7 +2547,7 @@
         <v>4265</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>7.225</v>
@@ -5479,7 +2567,7 @@
         <v>4266</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
         <v>7.225</v>
@@ -5499,7 +2587,7 @@
         <v>4276</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>7.225</v>
@@ -5519,7 +2607,7 @@
         <v>4297</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>7.225</v>
@@ -5559,7 +2647,7 @@
         <v>4310</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>5.707736538215364</v>
@@ -5599,7 +2687,7 @@
         <v>4313</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
         <v>2.278843413489553</v>
@@ -5639,7 +2727,7 @@
         <v>4315</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>2.178185174205677</v>
@@ -5659,7 +2747,7 @@
         <v>4315</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>2.178185174205677</v>
@@ -5699,7 +2787,7 @@
         <v>4318</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>3.081210288348665</v>
@@ -5739,7 +2827,7 @@
         <v>4325</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>5.707736538215364</v>
@@ -5779,7 +2867,7 @@
         <v>4340</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>5.443844002578921</v>
@@ -5799,7 +2887,7 @@
         <v>4342</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>4.123554266861941</v>
@@ -5819,7 +2907,7 @@
         <v>4349</v>
       </c>
       <c r="B79" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
         <v>7.225</v>
@@ -5879,7 +2967,7 @@
         <v>4371</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
         <v>5.220363542688304</v>
@@ -5939,7 +3027,7 @@
         <v>4384</v>
       </c>
       <c r="B85" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
         <v>3.745286179218991</v>
@@ -5959,7 +3047,7 @@
         <v>4385</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>1.598843413489553</v>
@@ -5999,7 +3087,7 @@
         <v>4386</v>
       </c>
       <c r="B88" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
         <v>3.745286179218991</v>
@@ -6019,7 +3107,7 @@
         <v>4393</v>
       </c>
       <c r="B89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>3.497017295867729</v>
@@ -6039,7 +3127,7 @@
         <v>4394</v>
       </c>
       <c r="B90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0.3170088648812771</v>
@@ -6059,7 +3147,7 @@
         <v>4394</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0.3170088648812771</v>
@@ -6119,7 +3207,7 @@
         <v>4417</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>5.024268397225804</v>
@@ -6139,7 +3227,7 @@
         <v>4418</v>
       </c>
       <c r="B95" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
         <v>5.220363542688304</v>
@@ -6159,7 +3247,7 @@
         <v>4432</v>
       </c>
       <c r="B96" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
         <v>7.225</v>
@@ -6179,7 +3267,7 @@
         <v>4440</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>7.225</v>
@@ -6199,7 +3287,7 @@
         <v>4452</v>
       </c>
       <c r="B98" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
         <v>5.024268397225804</v>
@@ -6219,7 +3307,7 @@
         <v>4453</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>3.497017295867729</v>
@@ -6279,7 +3367,7 @@
         <v>4464</v>
       </c>
       <c r="B102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>6.036365733878547</v>
@@ -6299,7 +3387,7 @@
         <v>4466</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>7.225</v>
@@ -6319,7 +3407,7 @@
         <v>4469</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
         <v>7.225</v>
@@ -6339,7 +3427,7 @@
         <v>5512</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>7.225</v>
@@ -6359,7 +3447,7 @@
         <v>5513</v>
       </c>
       <c r="B106" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>4.76</v>
@@ -6379,7 +3467,7 @@
         <v>5513</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
         <v>6.12</v>
@@ -6399,7 +3487,7 @@
         <v>5515</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>5.707736538215364</v>
@@ -6419,7 +3507,7 @@
         <v>5516</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>4.123554266861941</v>
@@ -6439,7 +3527,7 @@
         <v>5527</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>4.68565156198918</v>
@@ -6459,7 +3547,7 @@
         <v>5528</v>
       </c>
       <c r="B111" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
         <v>4.391666666666666</v>
@@ -6479,7 +3567,7 @@
         <v>5529</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>4.391666666666666</v>
@@ -6519,7 +3607,7 @@
         <v>5539</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>4.906189230572291</v>
@@ -6559,7 +3647,7 @@
         <v>5553</v>
       </c>
       <c r="B116" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
         <v>3.546189230572291</v>
@@ -6579,7 +3667,7 @@
         <v>5553</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
         <v>2.18618923057229</v>
@@ -6599,7 +3687,7 @@
         <v>5554</v>
       </c>
       <c r="B118" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>2.07571949663915</v>
@@ -6619,7 +3707,7 @@
         <v>5554</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>1.39571949663915</v>
@@ -6679,7 +3767,7 @@
         <v>5557</v>
       </c>
       <c r="B122" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C122" t="n">
         <v>3.243112399804725</v>
@@ -6699,7 +3787,7 @@
         <v>5558</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>7.225</v>
@@ -6719,7 +3807,7 @@
         <v>5561</v>
       </c>
       <c r="B124" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
         <v>4.68565156198918</v>
@@ -6739,7 +3827,7 @@
         <v>5562</v>
       </c>
       <c r="B125" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C125" t="n">
         <v>3.99540558556507</v>
@@ -6759,7 +3847,7 @@
         <v>5563</v>
       </c>
       <c r="B126" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>3.869649370798937</v>
@@ -6799,7 +3887,7 @@
         <v>5565</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>3.869649370798937</v>
@@ -6819,7 +3907,7 @@
         <v>5566</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
         <v>3.683333333333333</v>
@@ -6839,7 +3927,7 @@
         <v>5573</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>5.443844002578921</v>
@@ -6859,7 +3947,7 @@
         <v>5590</v>
       </c>
       <c r="B131" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>6.484222386524036</v>
@@ -6879,7 +3967,7 @@
         <v>5592</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>5.707736538215364</v>
@@ -6899,7 +3987,7 @@
         <v>5595</v>
       </c>
       <c r="B133" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>5.707736538215364</v>
@@ -6919,7 +4007,7 @@
         <v>5598</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>5.707736538215364</v>
@@ -6939,7 +4027,7 @@
         <v>5600</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>4.097681771344152</v>
@@ -6979,7 +4067,7 @@
         <v>5605</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>5.220363542688304</v>
@@ -7039,7 +4127,7 @@
         <v>5615</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
         <v>4.391666666666666</v>
@@ -7059,7 +4147,7 @@
         <v>5618</v>
       </c>
       <c r="B141" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
         <v>6.484222386524036</v>
@@ -7079,7 +4167,7 @@
         <v>5631</v>
       </c>
       <c r="B142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>3.621380487447676</v>
@@ -7139,7 +4227,7 @@
         <v>5634</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>4.391666666666666</v>
@@ -7159,7 +4247,7 @@
         <v>5639</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
         <v>6.036365733878547</v>
@@ -7179,7 +4267,7 @@
         <v>5640</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>5.443844002578921</v>
@@ -7199,7 +4287,7 @@
         <v>5641</v>
       </c>
       <c r="B148" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C148" t="n">
         <v>7.225</v>
@@ -7259,7 +4347,7 @@
         <v>5653</v>
       </c>
       <c r="B151" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
         <v>6.484222386524036</v>
@@ -7279,7 +4367,7 @@
         <v>5654</v>
       </c>
       <c r="B152" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C152" t="n">
         <v>5.707736538215364</v>
@@ -7339,7 +4427,7 @@
         <v>5664</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>4.534490651661836</v>
@@ -7379,7 +4467,7 @@
         <v>5673</v>
       </c>
       <c r="B157" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
         <v>3.745286179218991</v>
@@ -7399,7 +4487,7 @@
         <v>5674</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
         <v>4.68565156198918</v>
@@ -7419,7 +4507,7 @@
         <v>5675</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>5.527377909219229</v>
@@ -7559,7 +4647,7 @@
         <v>5705</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>5.707736538215364</v>
@@ -7579,7 +4667,7 @@
         <v>5711</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>4.25520973645747</v>
@@ -7599,7 +4687,7 @@
         <v>5715</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
         <v>5.707736538215364</v>
@@ -7619,7 +4707,7 @@
         <v>5768</v>
       </c>
       <c r="B169" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>5.443844002578921</v>
@@ -7639,7 +4727,7 @@
         <v>5769</v>
       </c>
       <c r="B170" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
         <v>7.225</v>
@@ -7659,7 +4747,7 @@
         <v>5771</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>7.225</v>
@@ -7679,7 +4767,7 @@
         <v>5772</v>
       </c>
       <c r="B172" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>7.225</v>
@@ -7699,7 +4787,7 @@
         <v>5773</v>
       </c>
       <c r="B173" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>3.869649370798937</v>
@@ -7719,7 +4807,7 @@
         <v>5774</v>
       </c>
       <c r="B174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
         <v>0.07791866345829646</v>
@@ -7739,7 +4827,7 @@
         <v>5774</v>
       </c>
       <c r="B175" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C175" t="n">
         <v>0.07791866345829646</v>
@@ -7759,7 +4847,7 @@
         <v>5774</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
         <v>0.07791866345829646</v>
@@ -7779,7 +4867,7 @@
         <v>5775</v>
       </c>
       <c r="B177" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C177" t="n">
         <v>4.441525773923074</v>
@@ -7799,7 +4887,7 @@
         <v>5777</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>4.123554266861941</v>
@@ -7819,7 +4907,7 @@
         <v>5779</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
         <v>4.847731467757098</v>
@@ -7839,7 +4927,7 @@
         <v>5782</v>
       </c>
       <c r="B180" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C180" t="n">
         <v>7.225</v>
@@ -7859,7 +4947,7 @@
         <v>5785</v>
       </c>
       <c r="B181" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C181" t="n">
         <v>5.443844002578921</v>
@@ -7879,7 +4967,7 @@
         <v>5786</v>
       </c>
       <c r="B182" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C182" t="n">
         <v>2.493333333333333</v>
@@ -7919,7 +5007,7 @@
         <v>5788</v>
       </c>
       <c r="B184" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C184" t="n">
         <v>7.225</v>
@@ -7939,7 +5027,7 @@
         <v>5790</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
         <v>3.536324468452056</v>
@@ -7979,7 +5067,7 @@
         <v>5793</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
         <v>7.225</v>
@@ -7999,7 +5087,7 @@
         <v>5794</v>
       </c>
       <c r="B188" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C188" t="n">
         <v>5.707736538215364</v>
@@ -8019,7 +5107,7 @@
         <v>5795</v>
       </c>
       <c r="B189" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>7.225</v>
@@ -8039,7 +5127,7 @@
         <v>5799</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
         <v>7.225</v>
@@ -8059,7 +5147,7 @@
         <v>5805</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
         <v>7.225</v>
@@ -8079,7 +5167,7 @@
         <v>5806</v>
       </c>
       <c r="B192" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C192" t="n">
         <v>4.123554266861941</v>
@@ -8099,7 +5187,7 @@
         <v>5807</v>
       </c>
       <c r="B193" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>5.443844002578921</v>
@@ -8119,7 +5207,7 @@
         <v>5809</v>
       </c>
       <c r="B194" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>7.225</v>
@@ -8139,7 +5227,7 @@
         <v>5810</v>
       </c>
       <c r="B195" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>5.707736538215364</v>
@@ -8159,7 +5247,7 @@
         <v>5811</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
         <v>2.278843413489553</v>
@@ -8199,7 +5287,7 @@
         <v>5812</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
         <v>4.391666666666666</v>
@@ -8219,7 +5307,7 @@
         <v>5813</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
         <v>4.68565156198918</v>
@@ -8259,7 +5347,7 @@
         <v>5819</v>
       </c>
       <c r="B201" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>6.484222386524036</v>
@@ -8279,7 +5367,7 @@
         <v>5822</v>
       </c>
       <c r="B202" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>4.847731467757098</v>
@@ -8299,7 +5387,7 @@
         <v>5823</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
         <v>5.024268397225804</v>
@@ -8319,7 +5407,7 @@
         <v>5824</v>
       </c>
       <c r="B204" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>3.967592521329468</v>
@@ -8359,7 +5447,7 @@
         <v>5826</v>
       </c>
       <c r="B206" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C206" t="n">
         <v>5.024268397225804</v>
@@ -8379,7 +5467,7 @@
         <v>5834</v>
       </c>
       <c r="B207" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>5.707736538215364</v>
@@ -8399,7 +5487,7 @@
         <v>5835</v>
       </c>
       <c r="B208" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>6.036365733878547</v>
@@ -8419,7 +5507,7 @@
         <v>5836</v>
       </c>
       <c r="B209" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
         <v>4.534490651661836</v>
@@ -8479,7 +5567,7 @@
         <v>5841</v>
       </c>
       <c r="B212" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C212" t="n">
         <v>2.975</v>
@@ -8519,7 +5607,7 @@
         <v>5855</v>
       </c>
       <c r="B214" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
         <v>6.484222386524036</v>
@@ -8559,7 +5647,7 @@
         <v>5875</v>
       </c>
       <c r="B216" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
         <v>1.65159146460353</v>
@@ -8599,7 +5687,7 @@
         <v>5876</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>6.036365733878547</v>
@@ -8619,7 +5707,7 @@
         <v>7457</v>
       </c>
       <c r="B219" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C219" t="n">
         <v>6.036365733878547</v>
@@ -8639,7 +5727,7 @@
         <v>7460</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
         <v>5.024268397225804</v>
@@ -8659,7 +5747,7 @@
         <v>7466</v>
       </c>
       <c r="B221" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C221" t="n">
         <v>7.225</v>
@@ -8719,7 +5807,7 @@
         <v>7473</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>5.220363542688304</v>
@@ -8739,7 +5827,7 @@
         <v>7474</v>
       </c>
       <c r="B225" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
         <v>3.335075202063137</v>
@@ -8759,7 +5847,7 @@
         <v>7474</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
         <v>3.335075202063137</v>
@@ -8799,7 +5887,7 @@
         <v>7485</v>
       </c>
       <c r="B228" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C228" t="n">
         <v>7.225</v>
@@ -8819,7 +5907,7 @@
         <v>7490</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>4.391666666666666</v>
@@ -8879,7 +5967,7 @@
         <v>7496</v>
       </c>
       <c r="B232" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C232" t="n">
         <v>6.484222386524036</v>
@@ -8899,7 +5987,7 @@
         <v>7498</v>
       </c>
       <c r="B233" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>4.071137188339266</v>
@@ -8919,7 +6007,7 @@
         <v>7502</v>
       </c>
       <c r="B234" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C234" t="n">
         <v>2.278843413489553</v>
@@ -8959,7 +6047,7 @@
         <v>7503</v>
       </c>
       <c r="B236" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C236" t="n">
         <v>4.847731467757098</v>
@@ -8999,7 +6087,7 @@
         <v>7518</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
         <v>4.123554266861941</v>
@@ -9019,7 +6107,7 @@
         <v>7519</v>
       </c>
       <c r="B239" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>7.225</v>
@@ -9039,7 +6127,7 @@
         <v>7521</v>
       </c>
       <c r="B240" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
         <v>5.707736538215364</v>
@@ -9059,7 +6147,7 @@
         <v>7528</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
         <v>4.123554266861941</v>
@@ -9119,7 +6207,7 @@
         <v>7538</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
         <v>4.123554266861941</v>
@@ -9139,7 +6227,7 @@
         <v>7542</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
         <v>5.707736538215364</v>
@@ -9159,7 +6247,7 @@
         <v>7546</v>
       </c>
       <c r="B246" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C246" t="n">
         <v>7.225</v>
@@ -9179,7 +6267,7 @@
         <v>7547</v>
       </c>
       <c r="B247" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C247" t="n">
         <v>5.707736538215364</v>
@@ -9199,7 +6287,7 @@
         <v>7552</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
         <v>6.484222386524036</v>
@@ -9219,7 +6307,7 @@
         <v>7559</v>
       </c>
       <c r="B249" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
         <v>4.534490651661836</v>
@@ -9239,7 +6327,7 @@
         <v>7561</v>
       </c>
       <c r="B250" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C250" t="n">
         <v>5.443844002578921</v>
@@ -9259,7 +6347,7 @@
         <v>7562</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
         <v>7.225</v>
@@ -9299,7 +6387,7 @@
         <v>7568</v>
       </c>
       <c r="B253" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C253" t="n">
         <v>3.621380487447676</v>
@@ -9319,7 +6407,7 @@
         <v>7569</v>
       </c>
       <c r="B254" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
         <v>1.498185174205677</v>
@@ -9339,7 +6427,7 @@
         <v>7569</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
         <v>4.218185174205678</v>
@@ -9359,7 +6447,7 @@
         <v>7570</v>
       </c>
       <c r="B256" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
         <v>5.443844002578921</v>
@@ -9379,7 +6467,7 @@
         <v>7571</v>
       </c>
       <c r="B257" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C257" t="n">
         <v>2.858185174205677</v>
@@ -9399,7 +6487,7 @@
         <v>7571</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
         <v>2.858185174205677</v>
@@ -9419,7 +6507,7 @@
         <v>7572</v>
       </c>
       <c r="B259" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C259" t="n">
         <v>4.205350629201063</v>
@@ -9439,7 +6527,7 @@
         <v>7576</v>
       </c>
       <c r="B260" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
         <v>3.99540558556507</v>
@@ -9459,7 +6547,7 @@
         <v>7579</v>
       </c>
       <c r="B261" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C261" t="n">
         <v>7.225</v>
@@ -9479,7 +6567,7 @@
         <v>7581</v>
       </c>
       <c r="B262" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C262" t="n">
         <v>7.225</v>
@@ -9499,7 +6587,7 @@
         <v>7585</v>
       </c>
       <c r="B263" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
         <v>3.43571949663915</v>
@@ -9519,7 +6607,7 @@
         <v>7585</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
         <v>2.07571949663915</v>
@@ -9539,7 +6627,7 @@
         <v>8297</v>
       </c>
       <c r="B265" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C265" t="n">
         <v>1.598843413489553</v>
@@ -9579,7 +6667,7 @@
         <v>8298</v>
       </c>
       <c r="B267" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C267" t="n">
         <v>6.484222386524036</v>
@@ -9599,7 +6687,7 @@
         <v>8301</v>
       </c>
       <c r="B268" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
         <v>3.99540558556507</v>
@@ -9619,7 +6707,7 @@
         <v>8307</v>
       </c>
       <c r="B269" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
         <v>5.220363542688304</v>
@@ -9659,7 +6747,7 @@
         <v>8310</v>
       </c>
       <c r="B271" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C271" t="n">
         <v>3.357902603465248</v>
@@ -9679,7 +6767,7 @@
         <v>8312</v>
       </c>
       <c r="B272" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
         <v>7.225</v>
@@ -9699,7 +6787,7 @@
         <v>8315</v>
       </c>
       <c r="B273" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
         <v>4.123554266861941</v>
@@ -9719,7 +6807,7 @@
         <v>8322</v>
       </c>
       <c r="B274" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C274" t="n">
         <v>7.225</v>
@@ -9739,7 +6827,7 @@
         <v>8323</v>
       </c>
       <c r="B275" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C275" t="n">
         <v>7.225</v>
@@ -9759,7 +6847,7 @@
         <v>8324</v>
       </c>
       <c r="B276" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C276" t="n">
         <v>7.225</v>
@@ -9779,7 +6867,7 @@
         <v>8329</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
         <v>5.443844002578921</v>
@@ -9799,7 +6887,7 @@
         <v>8331</v>
       </c>
       <c r="B278" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
         <v>7.225</v>
@@ -9819,7 +6907,7 @@
         <v>8334</v>
       </c>
       <c r="B279" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
         <v>6.484222386524036</v>
@@ -9839,7 +6927,7 @@
         <v>8336</v>
       </c>
       <c r="B280" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C280" t="n">
         <v>3.371261081101597</v>
@@ -9859,7 +6947,7 @@
         <v>8338</v>
       </c>
       <c r="B281" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
         <v>4.534490651661836</v>
@@ -9899,7 +6987,7 @@
         <v>8346</v>
       </c>
       <c r="B283" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
         <v>1.041210288348665</v>
@@ -9919,7 +7007,7 @@
         <v>8346</v>
       </c>
       <c r="B284" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C284" t="n">
         <v>1.041210288348665</v>
@@ -9979,7 +7067,7 @@
         <v>8350</v>
       </c>
       <c r="B287" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C287" t="n">
         <v>3.670907412897162</v>
@@ -9999,7 +7087,7 @@
         <v>8350</v>
       </c>
       <c r="B288" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
         <v>3.670907412897162</v>
@@ -10079,7 +7167,7 @@
         <v>8360</v>
       </c>
       <c r="B292" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
         <v>7.225</v>
@@ -10099,7 +7187,7 @@
         <v>9991</v>
       </c>
       <c r="B293" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
         <v>6.036365733878547</v>
@@ -10139,7 +7227,7 @@
         <v>9993</v>
       </c>
       <c r="B295" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C295" t="n">
         <v>7.225</v>
@@ -10179,7 +7267,7 @@
         <v>9995</v>
       </c>
       <c r="B297" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C297" t="n">
         <v>4.25520973645747</v>
@@ -10199,7 +7287,7 @@
         <v>10001</v>
       </c>
       <c r="B298" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C298" t="n">
         <v>7.225</v>
@@ -10219,7 +7307,7 @@
         <v>10004</v>
       </c>
       <c r="B299" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
         <v>4.847731467757098</v>
@@ -10239,7 +7327,7 @@
         <v>10005</v>
       </c>
       <c r="B300" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
         <v>5.443844002578921</v>
@@ -10259,7 +7347,7 @@
         <v>10007</v>
       </c>
       <c r="B301" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C301" t="n">
         <v>3.371261081101597</v>
@@ -10299,7 +7387,7 @@
         <v>10015</v>
       </c>
       <c r="B303" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
         <v>3.745286179218991</v>
@@ -10339,7 +7427,7 @@
         <v>10017</v>
       </c>
       <c r="B305" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
         <v>4.847731467757098</v>
@@ -10359,7 +7447,7 @@
         <v>10018</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
         <v>7.225</v>
@@ -10379,7 +7467,7 @@
         <v>10020</v>
       </c>
       <c r="B307" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C307" t="n">
         <v>7.225</v>
@@ -10419,7 +7507,7 @@
         <v>10027</v>
       </c>
       <c r="B309" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
         <v>3.99540558556507</v>
@@ -10439,7 +7527,7 @@
         <v>10029</v>
       </c>
       <c r="B310" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
         <v>3.869649370798937</v>
@@ -10479,7 +7567,7 @@
         <v>10031</v>
       </c>
       <c r="B312" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C312" t="n">
         <v>3.243112399804725</v>
@@ -10499,7 +7587,7 @@
         <v>10032</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
         <v>4.68565156198918</v>
@@ -10519,7 +7607,7 @@
         <v>10034</v>
       </c>
       <c r="B314" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C314" t="n">
         <v>4.123554266861941</v>
@@ -10539,7 +7627,7 @@
         <v>10036</v>
       </c>
       <c r="B315" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
         <v>3.745286179218991</v>
@@ -10559,7 +7647,7 @@
         <v>10039</v>
       </c>
       <c r="B316" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
         <v>3.745286179218991</v>
@@ -10599,7 +7687,7 @@
         <v>10041</v>
       </c>
       <c r="B318" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
         <v>3.99540558556507</v>
@@ -10619,7 +7707,7 @@
         <v>10042</v>
       </c>
       <c r="B319" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C319" t="n">
         <v>1.133333333333333</v>
@@ -10639,7 +7727,7 @@
         <v>10042</v>
       </c>
       <c r="B320" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
         <v>1.813333333333333</v>
@@ -10699,7 +7787,7 @@
         <v>10045</v>
       </c>
       <c r="B323" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C323" t="n">
         <v>2.975</v>
@@ -10719,7 +7807,7 @@
         <v>10046</v>
       </c>
       <c r="B324" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C324" t="n">
         <v>3.99540558556507</v>
@@ -10739,7 +7827,7 @@
         <v>10048</v>
       </c>
       <c r="B325" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
         <v>4.534490651661836</v>
@@ -10759,7 +7847,7 @@
         <v>10049</v>
       </c>
       <c r="B326" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
         <v>3.621380487447676</v>
@@ -10799,7 +7887,7 @@
         <v>10055</v>
       </c>
       <c r="B328" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
         <v>7.225</v>
@@ -10819,7 +7907,7 @@
         <v>10057</v>
       </c>
       <c r="B329" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C329" t="n">
         <v>6.036365733878547</v>
@@ -10839,7 +7927,7 @@
         <v>10405</v>
       </c>
       <c r="B330" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
         <v>7.225</v>
@@ -10879,7 +7967,7 @@
         <v>10409</v>
       </c>
       <c r="B332" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
         <v>6.484222386524036</v>
@@ -10899,7 +7987,7 @@
         <v>10410</v>
       </c>
       <c r="B333" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
         <v>1.639414717780643</v>
@@ -10919,7 +8007,7 @@
         <v>10410</v>
       </c>
       <c r="B334" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C334" t="n">
         <v>1.639414717780643</v>
@@ -10939,7 +8027,7 @@
         <v>10411</v>
       </c>
       <c r="B335" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
         <v>3.99540558556507</v>
@@ -10959,7 +8047,7 @@
         <v>10416</v>
       </c>
       <c r="B336" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
         <v>6.12</v>
@@ -10979,7 +8067,7 @@
         <v>10416</v>
       </c>
       <c r="B337" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C337" t="n">
         <v>6.12</v>
@@ -10999,7 +8087,7 @@
         <v>10420</v>
       </c>
       <c r="B338" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
         <v>4.534490651661836</v>
@@ -11039,7 +8127,7 @@
         <v>10422</v>
       </c>
       <c r="B340" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
         <v>4.68565156198918</v>
@@ -11059,7 +8147,7 @@
         <v>10423</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
         <v>7.225</v>
@@ -11099,7 +8187,7 @@
         <v>10427</v>
       </c>
       <c r="B343" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
         <v>4.68565156198918</v>
@@ -11119,7 +8207,7 @@
         <v>10428</v>
       </c>
       <c r="B344" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
         <v>7.225</v>
@@ -11139,7 +8227,7 @@
         <v>10440</v>
       </c>
       <c r="B345" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C345" t="n">
         <v>6.484222386524036</v>
@@ -11159,7 +8247,7 @@
         <v>10446</v>
       </c>
       <c r="B346" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
         <v>3.869649370798937</v>
@@ -11179,7 +8267,7 @@
         <v>10448</v>
       </c>
       <c r="B347" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C347" t="n">
         <v>5.024268397225804</v>
@@ -11199,7 +8287,7 @@
         <v>10451</v>
       </c>
       <c r="B348" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C348" t="n">
         <v>6.036365733878547</v>
@@ -11219,7 +8307,7 @@
         <v>10455</v>
       </c>
       <c r="B349" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
         <v>3.745286179218991</v>
@@ -11239,7 +8327,7 @@
         <v>10456</v>
       </c>
       <c r="B350" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C350" t="n">
         <v>4.391666666666666</v>
@@ -11259,7 +8347,7 @@
         <v>10457</v>
       </c>
       <c r="B351" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C351" t="n">
         <v>3.621380487447676</v>
@@ -11279,7 +8367,7 @@
         <v>10463</v>
       </c>
       <c r="B352" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
         <v>2.18618923057229</v>
@@ -11299,7 +8387,7 @@
         <v>10463</v>
       </c>
       <c r="B353" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C353" t="n">
         <v>4.906189230572291</v>
@@ -11339,7 +8427,7 @@
         <v>12140</v>
       </c>
       <c r="B355" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
         <v>5.707736538215364</v>
@@ -11359,7 +8447,7 @@
         <v>12141</v>
       </c>
       <c r="B356" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
         <v>4.534490651661836</v>
@@ -11379,7 +8467,7 @@
         <v>12142</v>
       </c>
       <c r="B357" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
         <v>5.707736538215364</v>
@@ -11399,7 +8487,7 @@
         <v>12144</v>
       </c>
       <c r="B358" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>7.225</v>
@@ -11419,7 +8507,7 @@
         <v>12151</v>
       </c>
       <c r="B359" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
         <v>7.225</v>
@@ -11459,7 +8547,7 @@
         <v>12160</v>
       </c>
       <c r="B361" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
         <v>6.036365733878547</v>
@@ -11479,7 +8567,7 @@
         <v>12161</v>
       </c>
       <c r="B362" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C362" t="n">
         <v>5.220363542688304</v>
@@ -11499,7 +8587,7 @@
         <v>12162</v>
       </c>
       <c r="B363" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
         <v>4.847731467757098</v>
@@ -11519,7 +8607,7 @@
         <v>12163</v>
       </c>
       <c r="B364" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
         <v>7.225</v>
@@ -11539,7 +8627,7 @@
         <v>12164</v>
       </c>
       <c r="B365" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
         <v>5.527377909219229</v>
@@ -11579,7 +8667,7 @@
         <v>12166</v>
       </c>
       <c r="B367" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C367" t="n">
         <v>4.391666666666666</v>
@@ -11599,7 +8687,7 @@
         <v>12167</v>
       </c>
       <c r="B368" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
         <v>6.484222386524036</v>
@@ -11619,7 +8707,7 @@
         <v>12170</v>
       </c>
       <c r="B369" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
         <v>6.12</v>
@@ -11659,7 +8747,7 @@
         <v>12171</v>
       </c>
       <c r="B371" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
         <v>7.225</v>
@@ -11679,7 +8767,7 @@
         <v>12172</v>
       </c>
       <c r="B372" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
         <v>2.449092587102838</v>
@@ -11699,7 +8787,7 @@
         <v>12172</v>
       </c>
       <c r="B373" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
         <v>5.169092587102837</v>
@@ -11719,7 +8807,7 @@
         <v>12173</v>
       </c>
       <c r="B374" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
         <v>3.129092587102837</v>
@@ -11739,7 +8827,7 @@
         <v>12173</v>
       </c>
       <c r="B375" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C375" t="n">
         <v>5.169092587102837</v>
@@ -11779,7 +8867,7 @@
         <v>12175</v>
       </c>
       <c r="B377" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C377" t="n">
         <v>5.527377909219229</v>
@@ -11799,7 +8887,7 @@
         <v>12175</v>
       </c>
       <c r="B378" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
         <v>2.807377909219229</v>
@@ -11819,7 +8907,7 @@
         <v>12176</v>
       </c>
       <c r="B379" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
         <v>4.534490651661836</v>
@@ -11859,7 +8947,7 @@
         <v>12179</v>
       </c>
       <c r="B381" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
         <v>5.220363542688304</v>
@@ -11919,7 +9007,7 @@
         <v>12182</v>
       </c>
       <c r="B384" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
         <v>7.225</v>
@@ -11939,7 +9027,7 @@
         <v>12184</v>
       </c>
       <c r="B385" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
         <v>4.68565156198918</v>
@@ -11959,7 +9047,7 @@
         <v>12186</v>
       </c>
       <c r="B386" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
         <v>4.123554266861941</v>
@@ -11979,7 +9067,7 @@
         <v>12188</v>
       </c>
       <c r="B387" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C387" t="n">
         <v>4.391666666666666</v>
@@ -11999,7 +9087,7 @@
         <v>12189</v>
       </c>
       <c r="B388" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C388" t="n">
         <v>3.111456930209197</v>
@@ -12019,7 +9107,7 @@
         <v>12190</v>
       </c>
       <c r="B389" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
         <v>4.68565156198918</v>
@@ -12059,7 +9147,7 @@
         <v>12193</v>
       </c>
       <c r="B391" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
         <v>4.000283442021281</v>
@@ -12119,7 +9207,7 @@
         <v>12200</v>
       </c>
       <c r="B394" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
         <v>5.220363542688304</v>
@@ -12139,7 +9227,7 @@
         <v>12210</v>
       </c>
       <c r="B395" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
         <v>5.443844002578921</v>
@@ -12179,7 +9267,7 @@
         <v>12215</v>
       </c>
       <c r="B397" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C397" t="n">
         <v>3.621380487447676</v>
@@ -12219,7 +9307,7 @@
         <v>12217</v>
       </c>
       <c r="B399" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C399" t="n">
         <v>1.693481007056897</v>
@@ -12239,7 +9327,7 @@
         <v>12217</v>
       </c>
       <c r="B400" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
         <v>2.373481007056897</v>
@@ -12279,7 +9367,7 @@
         <v>12223</v>
       </c>
       <c r="B402" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
         <v>6.484222386524036</v>
@@ -12319,7 +9407,7 @@
         <v>12234</v>
       </c>
       <c r="B404" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
         <v>4.25520973645747</v>
@@ -12339,7 +9427,7 @@
         <v>12235</v>
       </c>
       <c r="B405" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C405" t="n">
         <v>5.024268397225804</v>
@@ -12359,7 +9447,7 @@
         <v>12237</v>
       </c>
       <c r="B406" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C406" t="n">
         <v>2.178185174205677</v>
@@ -12459,7 +9547,7 @@
         <v>12241</v>
       </c>
       <c r="B411" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C411" t="n">
         <v>6.484222386524036</v>
@@ -12479,7 +9567,7 @@
         <v>12242</v>
       </c>
       <c r="B412" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
         <v>4.25520973645747</v>
@@ -12499,7 +9587,7 @@
         <v>12245</v>
       </c>
       <c r="B413" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C413" t="n">
         <v>3.621380487447676</v>
@@ -12519,7 +9607,7 @@
         <v>12248</v>
       </c>
       <c r="B414" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
         <v>7.225</v>
@@ -12579,7 +9667,7 @@
         <v>12254</v>
       </c>
       <c r="B417" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
         <v>5.707736538215364</v>
@@ -12599,7 +9687,7 @@
         <v>12265</v>
       </c>
       <c r="B418" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
         <v>6.036365733878547</v>
@@ -12619,7 +9707,7 @@
         <v>12266</v>
       </c>
       <c r="B419" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
         <v>5.707736538215364</v>
@@ -12639,7 +9727,7 @@
         <v>12267</v>
       </c>
       <c r="B420" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
         <v>7.225</v>
@@ -12659,7 +9747,7 @@
         <v>12268</v>
       </c>
       <c r="B421" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C421" t="n">
         <v>7.225</v>
@@ -12679,7 +9767,7 @@
         <v>12273</v>
       </c>
       <c r="B422" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C422" t="n">
         <v>4.391666666666666</v>
@@ -12699,7 +9787,7 @@
         <v>12279</v>
       </c>
       <c r="B423" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
         <v>4.906189230572291</v>
@@ -12739,7 +9827,7 @@
         <v>12280</v>
       </c>
       <c r="B425" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
         <v>3.621380487447676</v>
@@ -12759,7 +9847,7 @@
         <v>12281</v>
       </c>
       <c r="B426" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
         <v>3.037008864881277</v>
@@ -12799,7 +9887,7 @@
         <v>12284</v>
       </c>
       <c r="B428" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
         <v>2.176324468452056</v>
@@ -12839,7 +9927,7 @@
         <v>12285</v>
       </c>
       <c r="B430" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C430" t="n">
         <v>1.097613836694183</v>
@@ -12859,7 +9947,7 @@
         <v>12285</v>
       </c>
       <c r="B431" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
         <v>0.4176138366941835</v>
@@ -12879,7 +9967,7 @@
         <v>12286</v>
       </c>
       <c r="B432" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
         <v>6.484222386524036</v>
@@ -12899,7 +9987,7 @@
         <v>12290</v>
       </c>
       <c r="B433" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
         <v>4.123554266861941</v>
@@ -12919,7 +10007,7 @@
         <v>12292</v>
       </c>
       <c r="B434" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
         <v>6.484222386524036</v>
@@ -12939,7 +10027,7 @@
         <v>12295</v>
       </c>
       <c r="B435" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C435" t="n">
         <v>5.220363542688304</v>
@@ -12959,7 +10047,7 @@
         <v>12298</v>
       </c>
       <c r="B436" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C436" t="n">
         <v>7.225</v>
@@ -13019,7 +10107,7 @@
         <v>12307</v>
       </c>
       <c r="B439" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>7.225</v>
@@ -13039,7 +10127,7 @@
         <v>12309</v>
       </c>
       <c r="B440" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
         <v>7.225</v>
@@ -13059,7 +10147,7 @@
         <v>12310</v>
       </c>
       <c r="B441" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
         <v>6.12</v>
@@ -13079,7 +10167,7 @@
         <v>12310</v>
       </c>
       <c r="B442" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
         <v>4.08</v>
@@ -13099,7 +10187,7 @@
         <v>12312</v>
       </c>
       <c r="B443" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C443" t="n">
         <v>4.123554266861941</v>
@@ -13119,7 +10207,7 @@
         <v>12321</v>
       </c>
       <c r="B444" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
         <v>7.225</v>
@@ -13139,7 +10227,7 @@
         <v>12326</v>
       </c>
       <c r="B445" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
         <v>7.225</v>
@@ -13159,7 +10247,7 @@
         <v>12331</v>
       </c>
       <c r="B446" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
         <v>7.225</v>
@@ -13179,7 +10267,7 @@
         <v>12332</v>
       </c>
       <c r="B447" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
         <v>7.225</v>
@@ -13199,7 +10287,7 @@
         <v>12335</v>
       </c>
       <c r="B448" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
         <v>5.707736538215364</v>
@@ -13219,7 +10307,7 @@
         <v>14675</v>
       </c>
       <c r="B449" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
         <v>4.25520973645747</v>
@@ -13239,7 +10327,7 @@
         <v>14682</v>
       </c>
       <c r="B450" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>6.036365733878547</v>
@@ -13259,7 +10347,7 @@
         <v>14683</v>
       </c>
       <c r="B451" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
         <v>7.225</v>
@@ -13299,7 +10387,7 @@
         <v>14690</v>
       </c>
       <c r="B453" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
         <v>3.111456930209197</v>
@@ -13339,7 +10427,7 @@
         <v>14706</v>
       </c>
       <c r="B455" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
         <v>5.707736538215364</v>
@@ -13359,7 +10447,7 @@
         <v>14715</v>
       </c>
       <c r="B456" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
         <v>5.707736538215364</v>
@@ -13379,7 +10467,7 @@
         <v>14726</v>
       </c>
       <c r="B457" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
         <v>5.220363542688304</v>
@@ -13399,7 +10487,7 @@
         <v>14727</v>
       </c>
       <c r="B458" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C458" t="n">
         <v>3.497017295867729</v>
@@ -13439,7 +10527,7 @@
         <v>14737</v>
       </c>
       <c r="B460" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C460" t="n">
         <v>6.484222386524036</v>
@@ -13459,7 +10547,7 @@
         <v>15889</v>
       </c>
       <c r="B461" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C461" t="n">
         <v>3.869649370798937</v>
@@ -13479,7 +10567,7 @@
         <v>15891</v>
       </c>
       <c r="B462" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C462" t="n">
         <v>2.476290834150643</v>
@@ -13499,7 +10587,7 @@
         <v>15891</v>
       </c>
       <c r="B463" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
         <v>2.476290834150643</v>
@@ -13539,7 +10627,7 @@
         <v>15892</v>
       </c>
       <c r="B465" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C465" t="n">
         <v>4.391666666666666</v>
@@ -13559,7 +10647,7 @@
         <v>15893</v>
       </c>
       <c r="B466" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C466" t="n">
         <v>3.243112399804725</v>
@@ -13579,7 +10667,7 @@
         <v>15894</v>
       </c>
       <c r="B467" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
         <v>5.220363542688304</v>
@@ -13599,7 +10687,7 @@
         <v>15895</v>
       </c>
       <c r="B468" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C468" t="n">
         <v>7.225</v>
@@ -13619,7 +10707,7 @@
         <v>15896</v>
       </c>
       <c r="B469" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C469" t="n">
         <v>7.225</v>
@@ -13639,7 +10727,7 @@
         <v>15900</v>
       </c>
       <c r="B470" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C470" t="n">
         <v>5.220363542688304</v>
@@ -13659,7 +10747,7 @@
         <v>15901</v>
       </c>
       <c r="B471" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
         <v>7.225</v>
@@ -13679,7 +10767,7 @@
         <v>15902</v>
       </c>
       <c r="B472" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
         <v>5.443844002578921</v>
@@ -13699,7 +10787,7 @@
         <v>15903</v>
       </c>
       <c r="B473" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
         <v>4.123554266861941</v>
@@ -13719,7 +10807,7 @@
         <v>15904</v>
       </c>
       <c r="B474" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
         <v>0.4176138366941835</v>
@@ -13759,7 +10847,7 @@
         <v>15905</v>
       </c>
       <c r="B476" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C476" t="n">
         <v>3.536324468452056</v>
@@ -13779,7 +10867,7 @@
         <v>15905</v>
       </c>
       <c r="B477" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
         <v>0.8163244684520561</v>
@@ -13799,7 +10887,7 @@
         <v>15907</v>
       </c>
       <c r="B478" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
         <v>3.869649370798937</v>
@@ -13819,7 +10907,7 @@
         <v>15909</v>
       </c>
       <c r="B479" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
         <v>7.225</v>
@@ -13839,7 +10927,7 @@
         <v>15910</v>
       </c>
       <c r="B480" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C480" t="n">
         <v>2.18618923057229</v>
@@ -13879,7 +10967,7 @@
         <v>15911</v>
       </c>
       <c r="B482" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
         <v>1.677008864881277</v>
@@ -13959,7 +11047,7 @@
         <v>15914</v>
       </c>
       <c r="B486" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C486" t="n">
         <v>2.999414717780643</v>
@@ -13979,7 +11067,7 @@
         <v>15914</v>
       </c>
       <c r="B487" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C487" t="n">
         <v>4.359414717780644</v>
@@ -13999,7 +11087,7 @@
         <v>15916</v>
       </c>
       <c r="B488" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C488" t="n">
         <v>5.220363542688304</v>
@@ -14019,7 +11107,7 @@
         <v>15917</v>
       </c>
       <c r="B489" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C489" t="n">
         <v>4.08</v>
@@ -14079,7 +11167,7 @@
         <v>15926</v>
       </c>
       <c r="B492" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C492" t="n">
         <v>2.86618923057229</v>
@@ -14119,7 +11207,7 @@
         <v>15929</v>
       </c>
       <c r="B494" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
         <v>6.036365733878547</v>
@@ -14139,7 +11227,7 @@
         <v>15930</v>
       </c>
       <c r="B495" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
         <v>4.516290834150643</v>
@@ -14199,7 +11287,7 @@
         <v>15932</v>
       </c>
       <c r="B498" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C498" t="n">
         <v>4.68565156198918</v>
@@ -14219,7 +11307,7 @@
         <v>15933</v>
       </c>
       <c r="B499" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
         <v>7.225</v>
@@ -14239,7 +11327,7 @@
         <v>15934</v>
       </c>
       <c r="B500" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
         <v>3.869649370798937</v>
@@ -14259,7 +11347,7 @@
         <v>15935</v>
       </c>
       <c r="B501" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
         <v>6.036365733878547</v>
@@ -14279,7 +11367,7 @@
         <v>15936</v>
       </c>
       <c r="B502" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
         <v>2.278843413489553</v>
@@ -14319,7 +11407,7 @@
         <v>15937</v>
       </c>
       <c r="B504" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
         <v>0.8163244684520561</v>
@@ -14339,7 +11427,7 @@
         <v>15937</v>
       </c>
       <c r="B505" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C505" t="n">
         <v>0.8163244684520561</v>
@@ -14359,7 +11447,7 @@
         <v>15937</v>
       </c>
       <c r="B506" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
         <v>1.496324468452056</v>
@@ -14399,7 +11487,7 @@
         <v>15938</v>
       </c>
       <c r="B508" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
         <v>0.1091655441673577</v>
@@ -14459,7 +11547,7 @@
         <v>15941</v>
       </c>
       <c r="B511" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C511" t="n">
         <v>3.621380487447676</v>
@@ -14479,7 +11567,7 @@
         <v>15943</v>
       </c>
       <c r="B512" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C512" t="n">
         <v>5.220363542688304</v>
@@ -14499,7 +11587,7 @@
         <v>15945</v>
       </c>
       <c r="B513" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C513" t="n">
         <v>4.76</v>
@@ -14539,7 +11627,7 @@
         <v>15947</v>
       </c>
       <c r="B515" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C515" t="n">
         <v>3.371261081101597</v>
@@ -14559,7 +11647,7 @@
         <v>15948</v>
       </c>
       <c r="B516" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
         <v>4.847731467757098</v>
@@ -14579,7 +11667,7 @@
         <v>15949</v>
       </c>
       <c r="B517" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
         <v>5.024268397225804</v>
@@ -14639,7 +11727,7 @@
         <v>15956</v>
       </c>
       <c r="B520" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
         <v>6.12</v>
@@ -14679,7 +11767,7 @@
         <v>15961</v>
       </c>
       <c r="B522" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
         <v>4.25520973645747</v>
@@ -14699,7 +11787,7 @@
         <v>15966</v>
       </c>
       <c r="B523" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
         <v>3.99540558556507</v>
@@ -14719,7 +11807,7 @@
         <v>15968</v>
       </c>
       <c r="B524" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C524" t="n">
         <v>3.111456930209197</v>
@@ -14739,7 +11827,7 @@
         <v>15969</v>
       </c>
       <c r="B525" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
         <v>3.765129695672454</v>
@@ -14759,7 +11847,7 @@
         <v>15970</v>
       </c>
       <c r="B526" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C526" t="n">
         <v>3.497017295867729</v>
@@ -14779,7 +11867,7 @@
         <v>15972</v>
       </c>
       <c r="B527" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C527" t="n">
         <v>3.111456930209197</v>
@@ -14799,7 +11887,7 @@
         <v>15973</v>
       </c>
       <c r="B528" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
         <v>3.745286179218991</v>
@@ -14819,7 +11907,7 @@
         <v>15974</v>
       </c>
       <c r="B529" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
         <v>3.869649370798937</v>
@@ -14899,7 +11987,7 @@
         <v>15983</v>
       </c>
       <c r="B533" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C533" t="n">
         <v>4.391666666666666</v>
@@ -14919,7 +12007,7 @@
         <v>15984</v>
       </c>
       <c r="B534" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C534" t="n">
         <v>6.484222386524036</v>
@@ -14959,7 +12047,7 @@
         <v>15992</v>
       </c>
       <c r="B536" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
         <v>7.225</v>
@@ -14979,7 +12067,7 @@
         <v>15994</v>
       </c>
       <c r="B537" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
         <v>7.225</v>
@@ -15019,7 +12107,7 @@
         <v>16000</v>
       </c>
       <c r="B539" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539" t="n">
         <v>0.68</v>
@@ -15059,7 +12147,7 @@
         <v>16003</v>
       </c>
       <c r="B541" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C541" t="n">
         <v>7.225</v>
@@ -15099,7 +12187,7 @@
         <v>16011</v>
       </c>
       <c r="B543" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
         <v>7.225</v>
@@ -15119,7 +12207,7 @@
         <v>16014</v>
       </c>
       <c r="B544" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
         <v>7.225</v>
@@ -15139,7 +12227,7 @@
         <v>16017</v>
       </c>
       <c r="B545" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C545" t="n">
         <v>3.336228943375192</v>
@@ -15159,7 +12247,7 @@
         <v>16017</v>
       </c>
       <c r="B546" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
         <v>0.6162289433751923</v>
@@ -15199,7 +12287,7 @@
         <v>16022</v>
       </c>
       <c r="B548" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
         <v>7.225</v>
